--- a/5/6/3/1/2/21 meses 2021 - Diaria.xlsx
+++ b/5/6/3/1/2/21 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Serie</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>15-07-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,6 +450,29 @@
         <v>2.1</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>350000</v>
+      </c>
+      <c r="C3">
+        <v>435000</v>
+      </c>
+      <c r="D3">
+        <v>350000</v>
+      </c>
+      <c r="E3">
+        <v>335000</v>
+      </c>
+      <c r="F3">
+        <v>15000</v>
+      </c>
+      <c r="G3">
+        <v>2.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/3/1/2/21 meses 2021 - Diaria.xlsx
+++ b/5/6/3/1/2/21 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Serie</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +476,29 @@
         <v>2.8</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>320000</v>
+      </c>
+      <c r="C4">
+        <v>535000</v>
+      </c>
+      <c r="D4">
+        <v>320000</v>
+      </c>
+      <c r="E4">
+        <v>315000</v>
+      </c>
+      <c r="F4">
+        <v>5000</v>
+      </c>
+      <c r="G4">
+        <v>4.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
